--- a/ExampleIG/output/StructureDefinition-hn-extension-first-and-last-available-free-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-first-and-last-available-free-slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-extension-first-and-last-available-free-slot.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-extension-first-and-last-available-free-slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
